--- a/docs/Seguiment.xlsx
+++ b/docs/Seguiment.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="54">
   <si>
     <t>Héctor</t>
   </si>
@@ -84,9 +84,6 @@
     <t>Xarxa P2P</t>
   </si>
   <si>
-    <t>Multithreading</t>
-  </si>
-  <si>
     <t>Cerca Cançons</t>
   </si>
   <si>
@@ -129,18 +126,6 @@
     <t>Enviament Est. RMI</t>
   </si>
   <si>
-    <t xml:space="preserve">PeerGroup </t>
-  </si>
-  <si>
-    <t>Client</t>
-  </si>
-  <si>
-    <t>Servidor</t>
-  </si>
-  <si>
-    <t>Servei Cerca</t>
-  </si>
-  <si>
     <t>Març</t>
   </si>
   <si>
@@ -148,6 +133,51 @@
   </si>
   <si>
     <t>Maig</t>
+  </si>
+  <si>
+    <t>Node</t>
+  </si>
+  <si>
+    <t>Servidor P2P</t>
+  </si>
+  <si>
+    <t>Transmissió Fitxers</t>
+  </si>
+  <si>
+    <t>Resultats Cerca</t>
+  </si>
+  <si>
+    <t>Resta (Llistar, Name, Quit)</t>
+  </si>
+  <si>
+    <t>Manegadors Missatges</t>
+  </si>
+  <si>
+    <t>Manegadors Mòbil</t>
+  </si>
+  <si>
+    <t>Join</t>
+  </si>
+  <si>
+    <t>Definir Protocol</t>
+  </si>
+  <si>
+    <t>Tests</t>
+  </si>
+  <si>
+    <t>Documentació</t>
+  </si>
+  <si>
+    <t>Complet</t>
+  </si>
+  <si>
+    <t>Per fer</t>
+  </si>
+  <si>
+    <t>Conté subtasques</t>
+  </si>
+  <si>
+    <t>No existeix al nou Gantt</t>
   </si>
 </sst>
 </file>
@@ -155,9 +185,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="dd"/>
+    <numFmt numFmtId="164" formatCode="dd"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,8 +217,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF92D050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -203,18 +255,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -224,29 +294,9 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -290,71 +340,397 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -368,13 +744,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
@@ -442,13 +818,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>119063</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>71438</xdr:rowOff>
@@ -519,15 +895,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>142874</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>142874</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -591,11 +967,162 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>117872</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>79772</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="2 Abrir llave"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2695575" y="9261872"/>
+          <a:ext cx="133350" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBrace">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="es-ES" sz="1100" b="1" cap="none" spc="0">
+            <a:ln w="18000">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:satMod val="140000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="25500" dist="23000" dir="7020000" algn="tl">
+                <a:srgbClr val="000000">
+                  <a:alpha val="50000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>122635</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>75010</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="3 Abrir llave"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7677150" y="9266635"/>
+          <a:ext cx="180975" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBrace">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 8333"/>
+            <a:gd name="adj2" fmla="val 47222"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="es-ES" sz="1100" b="1" cap="none" spc="0">
+            <a:ln w="18000">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:satMod val="140000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="25500" dist="23000" dir="7020000" algn="tl">
+                <a:srgbClr val="000000">
+                  <a:alpha val="50000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -879,466 +1406,2397 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:AJ59"/>
+  <dimension ref="A2:AN67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S30" sqref="S30"/>
+      <selection activeCell="AN6" sqref="AN6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37" customWidth="1"/>
-    <col min="2" max="19" width="2.7109375" customWidth="1"/>
-    <col min="20" max="20" width="2.7109375" style="17" customWidth="1"/>
-    <col min="21" max="33" width="2.7109375" customWidth="1"/>
-    <col min="34" max="34" width="2.7109375" style="17" customWidth="1"/>
-    <col min="35" max="36" width="2.7109375" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="2" width="37" customWidth="1"/>
+    <col min="3" max="20" width="2.7109375" customWidth="1"/>
+    <col min="21" max="21" width="2.7109375" style="5" customWidth="1"/>
+    <col min="22" max="34" width="2.7109375" customWidth="1"/>
+    <col min="35" max="35" width="2.7109375" style="5" customWidth="1"/>
+    <col min="36" max="37" width="2.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:36">
-      <c r="B2" s="21" t="s">
+    <row r="2" spans="1:40">
+      <c r="C2" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="28"/>
+      <c r="T2" s="28"/>
+      <c r="U2" s="28"/>
+      <c r="V2" s="28"/>
+      <c r="W2" s="28"/>
+      <c r="X2" s="28"/>
+      <c r="Y2" s="28"/>
+      <c r="Z2" s="31"/>
+      <c r="AA2" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB2" s="28"/>
+      <c r="AC2" s="28"/>
+      <c r="AD2" s="28"/>
+      <c r="AE2" s="28"/>
+      <c r="AF2" s="28"/>
+      <c r="AG2" s="28"/>
+      <c r="AH2" s="28"/>
+      <c r="AI2" s="28"/>
+      <c r="AJ2" s="28"/>
+      <c r="AK2" s="31"/>
+      <c r="AM2" s="4"/>
+      <c r="AN2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:40" s="6" customFormat="1">
+      <c r="A3" s="34"/>
+      <c r="B3" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="9">
+        <v>40259</v>
+      </c>
+      <c r="D3" s="7">
+        <v>40260</v>
+      </c>
+      <c r="E3" s="7">
+        <v>40261</v>
+      </c>
+      <c r="F3" s="8">
+        <v>40262</v>
+      </c>
+      <c r="G3" s="7">
+        <v>40266</v>
+      </c>
+      <c r="H3" s="7">
+        <v>40267</v>
+      </c>
+      <c r="I3" s="7">
+        <v>40268</v>
+      </c>
+      <c r="J3" s="8">
+        <v>40269</v>
+      </c>
+      <c r="K3" s="7">
+        <v>40273</v>
+      </c>
+      <c r="L3" s="7">
+        <v>40274</v>
+      </c>
+      <c r="M3" s="7">
+        <v>40275</v>
+      </c>
+      <c r="N3" s="8">
+        <v>40276</v>
+      </c>
+      <c r="O3" s="7">
+        <v>40280</v>
+      </c>
+      <c r="P3" s="7">
+        <v>40281</v>
+      </c>
+      <c r="Q3" s="7">
+        <v>40282</v>
+      </c>
+      <c r="R3" s="8">
+        <v>40283</v>
+      </c>
+      <c r="S3" s="7">
+        <v>40287</v>
+      </c>
+      <c r="T3" s="7">
+        <v>40288</v>
+      </c>
+      <c r="U3" s="7">
+        <v>40289</v>
+      </c>
+      <c r="V3" s="23">
+        <v>40290</v>
+      </c>
+      <c r="W3" s="7">
+        <v>40294</v>
+      </c>
+      <c r="X3" s="7">
+        <v>40295</v>
+      </c>
+      <c r="Y3" s="7">
+        <v>40296</v>
+      </c>
+      <c r="Z3" s="8">
+        <v>40297</v>
+      </c>
+      <c r="AA3" s="7">
+        <v>40301</v>
+      </c>
+      <c r="AB3" s="7">
+        <v>40302</v>
+      </c>
+      <c r="AC3" s="7">
+        <v>40303</v>
+      </c>
+      <c r="AD3" s="8">
+        <v>40304</v>
+      </c>
+      <c r="AE3" s="7">
+        <v>40308</v>
+      </c>
+      <c r="AF3" s="7">
+        <v>40309</v>
+      </c>
+      <c r="AG3" s="7">
+        <v>40310</v>
+      </c>
+      <c r="AH3" s="8">
+        <v>40311</v>
+      </c>
+      <c r="AI3" s="20">
+        <v>40315</v>
+      </c>
+      <c r="AJ3" s="19">
+        <v>40316</v>
+      </c>
+      <c r="AK3" s="22">
+        <v>40317</v>
+      </c>
+      <c r="AM3" s="37"/>
+      <c r="AN3" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:40">
+      <c r="A4" s="99"/>
+      <c r="B4" s="88" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="10"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="10"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="10"/>
+      <c r="Q4" s="29"/>
+      <c r="R4" s="10"/>
+      <c r="V4" s="24"/>
+      <c r="Y4" s="29"/>
+      <c r="Z4" s="10"/>
+      <c r="AC4" s="29"/>
+      <c r="AD4" s="10"/>
+      <c r="AG4" s="29"/>
+      <c r="AH4" s="10"/>
+      <c r="AJ4" s="21"/>
+      <c r="AK4" s="10"/>
+      <c r="AL4" s="12"/>
+      <c r="AM4" s="102"/>
+      <c r="AN4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:40">
+      <c r="A5" s="80"/>
+      <c r="B5" s="89" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="10"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="10"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="10"/>
+      <c r="Q5" s="29"/>
+      <c r="R5" s="10"/>
+      <c r="V5" s="25"/>
+      <c r="Y5" s="29"/>
+      <c r="Z5" s="10"/>
+      <c r="AC5" s="29"/>
+      <c r="AD5" s="10"/>
+      <c r="AG5" s="29"/>
+      <c r="AH5" s="10"/>
+      <c r="AJ5" s="21"/>
+      <c r="AK5" s="10"/>
+      <c r="AL5" s="12"/>
+      <c r="AM5" s="27"/>
+      <c r="AN5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:40">
+      <c r="A6" s="80"/>
+      <c r="B6" s="89" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="10"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="10"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="10"/>
+      <c r="Q6" s="29"/>
+      <c r="R6" s="10"/>
+      <c r="V6" s="25"/>
+      <c r="Y6" s="29"/>
+      <c r="Z6" s="10"/>
+      <c r="AC6" s="29"/>
+      <c r="AD6" s="10"/>
+      <c r="AG6" s="29"/>
+      <c r="AH6" s="10"/>
+      <c r="AJ6" s="21"/>
+      <c r="AK6" s="10"/>
+      <c r="AL6" s="12"/>
+    </row>
+    <row r="7" spans="1:40">
+      <c r="A7" s="98"/>
+      <c r="B7" s="90" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="10"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="10"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="10"/>
+      <c r="Q7" s="29"/>
+      <c r="R7" s="10"/>
+      <c r="V7" s="25"/>
+      <c r="Y7" s="29"/>
+      <c r="Z7" s="10"/>
+      <c r="AC7" s="29"/>
+      <c r="AD7" s="10"/>
+      <c r="AG7" s="29"/>
+      <c r="AH7" s="10"/>
+      <c r="AJ7" s="21"/>
+      <c r="AK7" s="10"/>
+      <c r="AL7" s="12"/>
+    </row>
+    <row r="8" spans="1:40">
+      <c r="A8" s="80"/>
+      <c r="B8" s="89" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="10"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="10"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="10"/>
+      <c r="Q8" s="29"/>
+      <c r="R8" s="10"/>
+      <c r="V8" s="25"/>
+      <c r="Y8" s="29"/>
+      <c r="Z8" s="10"/>
+      <c r="AC8" s="29"/>
+      <c r="AD8" s="10"/>
+      <c r="AG8" s="29"/>
+      <c r="AH8" s="10"/>
+      <c r="AJ8" s="21"/>
+      <c r="AK8" s="10"/>
+      <c r="AL8" s="12"/>
+    </row>
+    <row r="9" spans="1:40">
+      <c r="A9" s="80"/>
+      <c r="B9" s="89" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="10"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="10"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="10"/>
+      <c r="Q9" s="29"/>
+      <c r="R9" s="10"/>
+      <c r="V9" s="25"/>
+      <c r="Y9" s="29"/>
+      <c r="Z9" s="10"/>
+      <c r="AC9" s="29"/>
+      <c r="AD9" s="10"/>
+      <c r="AG9" s="29"/>
+      <c r="AH9" s="10"/>
+      <c r="AJ9" s="21"/>
+      <c r="AK9" s="10"/>
+      <c r="AL9" s="12"/>
+    </row>
+    <row r="10" spans="1:40">
+      <c r="A10" s="98"/>
+      <c r="B10" s="90" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="10"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="10"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="10"/>
+      <c r="Q10" s="29"/>
+      <c r="R10" s="10"/>
+      <c r="V10" s="25"/>
+      <c r="Y10" s="29"/>
+      <c r="Z10" s="10"/>
+      <c r="AC10" s="29"/>
+      <c r="AD10" s="10"/>
+      <c r="AG10" s="29"/>
+      <c r="AH10" s="10"/>
+      <c r="AJ10" s="21"/>
+      <c r="AK10" s="10"/>
+      <c r="AL10" s="12"/>
+    </row>
+    <row r="11" spans="1:40">
+      <c r="A11" s="98"/>
+      <c r="B11" s="89" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="10"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="10"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="10"/>
+      <c r="Q11" s="29"/>
+      <c r="R11" s="10"/>
+      <c r="V11" s="25"/>
+      <c r="Y11" s="29"/>
+      <c r="Z11" s="10"/>
+      <c r="AC11" s="29"/>
+      <c r="AD11" s="10"/>
+      <c r="AG11" s="29"/>
+      <c r="AH11" s="10"/>
+      <c r="AJ11" s="21"/>
+      <c r="AK11" s="10"/>
+      <c r="AL11" s="12"/>
+    </row>
+    <row r="12" spans="1:40">
+      <c r="A12" s="80"/>
+      <c r="B12" s="91" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="11"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="10"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="10"/>
+      <c r="Q12" s="29"/>
+      <c r="R12" s="10"/>
+      <c r="V12" s="25"/>
+      <c r="Y12" s="29"/>
+      <c r="Z12" s="10"/>
+      <c r="AC12" s="29"/>
+      <c r="AD12" s="10"/>
+      <c r="AG12" s="29"/>
+      <c r="AH12" s="10"/>
+      <c r="AJ12" s="21"/>
+      <c r="AK12" s="10"/>
+      <c r="AL12" s="12"/>
+    </row>
+    <row r="13" spans="1:40">
+      <c r="A13" s="80"/>
+      <c r="B13" s="91" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="10"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="10"/>
+      <c r="Q13" s="29"/>
+      <c r="R13" s="10"/>
+      <c r="V13" s="25"/>
+      <c r="Y13" s="29"/>
+      <c r="Z13" s="10"/>
+      <c r="AC13" s="29"/>
+      <c r="AD13" s="10"/>
+      <c r="AG13" s="29"/>
+      <c r="AH13" s="10"/>
+      <c r="AJ13" s="21"/>
+      <c r="AK13" s="10"/>
+      <c r="AL13" s="12"/>
+    </row>
+    <row r="14" spans="1:40">
+      <c r="A14" s="98"/>
+      <c r="B14" s="89" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="10"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="10"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="10"/>
+      <c r="Q14" s="29"/>
+      <c r="R14" s="10"/>
+      <c r="V14" s="25"/>
+      <c r="Y14" s="29"/>
+      <c r="Z14" s="10"/>
+      <c r="AC14" s="29"/>
+      <c r="AD14" s="10"/>
+      <c r="AG14" s="29"/>
+      <c r="AH14" s="10"/>
+      <c r="AJ14" s="21"/>
+      <c r="AK14" s="10"/>
+      <c r="AL14" s="12"/>
+    </row>
+    <row r="15" spans="1:40">
+      <c r="A15" s="98"/>
+      <c r="B15" s="91" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="10"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="10"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="10"/>
+      <c r="Q15" s="29"/>
+      <c r="R15" s="10"/>
+      <c r="V15" s="25"/>
+      <c r="Y15" s="29"/>
+      <c r="Z15" s="10"/>
+      <c r="AC15" s="29"/>
+      <c r="AD15" s="10"/>
+      <c r="AG15" s="29"/>
+      <c r="AH15" s="10"/>
+      <c r="AJ15" s="21"/>
+      <c r="AK15" s="10"/>
+      <c r="AL15" s="12"/>
+    </row>
+    <row r="16" spans="1:40">
+      <c r="A16" s="82"/>
+      <c r="B16" s="92" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="12"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="10"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="10"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="10"/>
+      <c r="Q16" s="29"/>
+      <c r="R16" s="10"/>
+      <c r="V16" s="25"/>
+      <c r="Y16" s="29"/>
+      <c r="Z16" s="10"/>
+      <c r="AC16" s="29"/>
+      <c r="AD16" s="10"/>
+      <c r="AG16" s="29"/>
+      <c r="AH16" s="10"/>
+      <c r="AJ16" s="21"/>
+      <c r="AK16" s="10"/>
+      <c r="AL16" s="12"/>
+    </row>
+    <row r="17" spans="1:38">
+      <c r="A17" s="82"/>
+      <c r="B17" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="12"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="10"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="10"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="10"/>
+      <c r="Q17" s="29"/>
+      <c r="R17" s="10"/>
+      <c r="V17" s="25"/>
+      <c r="Y17" s="29"/>
+      <c r="Z17" s="10"/>
+      <c r="AC17" s="29"/>
+      <c r="AD17" s="10"/>
+      <c r="AG17" s="29"/>
+      <c r="AH17" s="10"/>
+      <c r="AJ17" s="21"/>
+      <c r="AK17" s="10"/>
+      <c r="AL17" s="12"/>
+    </row>
+    <row r="18" spans="1:38">
+      <c r="A18" s="101"/>
+      <c r="B18" s="92" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="12"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="10"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="10"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="10"/>
+      <c r="Q18" s="29"/>
+      <c r="R18" s="10"/>
+      <c r="V18" s="25"/>
+      <c r="Y18" s="29"/>
+      <c r="Z18" s="10"/>
+      <c r="AC18" s="29"/>
+      <c r="AD18" s="10"/>
+      <c r="AG18" s="29"/>
+      <c r="AH18" s="10"/>
+      <c r="AJ18" s="21"/>
+      <c r="AK18" s="10"/>
+      <c r="AL18" s="12"/>
+    </row>
+    <row r="19" spans="1:38">
+      <c r="A19" s="98"/>
+      <c r="B19" s="91" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="12"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="10"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="10"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="10"/>
+      <c r="Q19" s="29"/>
+      <c r="R19" s="10"/>
+      <c r="V19" s="25"/>
+      <c r="Y19" s="29"/>
+      <c r="Z19" s="10"/>
+      <c r="AC19" s="29"/>
+      <c r="AD19" s="10"/>
+      <c r="AG19" s="29"/>
+      <c r="AH19" s="10"/>
+      <c r="AJ19" s="21"/>
+      <c r="AK19" s="10"/>
+      <c r="AL19" s="12"/>
+    </row>
+    <row r="20" spans="1:38">
+      <c r="A20" s="82"/>
+      <c r="B20" s="92" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="12"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="10"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="10"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="10"/>
+      <c r="Q20" s="29"/>
+      <c r="R20" s="10"/>
+      <c r="V20" s="25"/>
+      <c r="Y20" s="29"/>
+      <c r="Z20" s="10"/>
+      <c r="AC20" s="29"/>
+      <c r="AD20" s="10"/>
+      <c r="AG20" s="29"/>
+      <c r="AH20" s="10"/>
+      <c r="AJ20" s="21"/>
+      <c r="AK20" s="10"/>
+      <c r="AL20" s="12"/>
+    </row>
+    <row r="21" spans="1:38">
+      <c r="A21" s="82"/>
+      <c r="B21" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="12"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="10"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="10"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="10"/>
+      <c r="Q21" s="29"/>
+      <c r="R21" s="10"/>
+      <c r="V21" s="25"/>
+      <c r="Y21" s="29"/>
+      <c r="Z21" s="10"/>
+      <c r="AC21" s="29"/>
+      <c r="AD21" s="10"/>
+      <c r="AG21" s="29"/>
+      <c r="AH21" s="10"/>
+      <c r="AJ21" s="21"/>
+      <c r="AK21" s="10"/>
+      <c r="AL21" s="12"/>
+    </row>
+    <row r="22" spans="1:38">
+      <c r="A22" s="82"/>
+      <c r="B22" s="92" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="12"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="10"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="10"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="10"/>
+      <c r="Q22" s="29"/>
+      <c r="R22" s="10"/>
+      <c r="V22" s="25"/>
+      <c r="Y22" s="29"/>
+      <c r="Z22" s="10"/>
+      <c r="AC22" s="29"/>
+      <c r="AD22" s="10"/>
+      <c r="AG22" s="29"/>
+      <c r="AH22" s="10"/>
+      <c r="AJ22" s="21"/>
+      <c r="AK22" s="10"/>
+      <c r="AL22" s="12"/>
+    </row>
+    <row r="23" spans="1:38">
+      <c r="A23" s="95"/>
+      <c r="B23" s="93" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="12"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="10"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="10"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="10"/>
+      <c r="Q23" s="29"/>
+      <c r="R23" s="10"/>
+      <c r="V23" s="25"/>
+      <c r="Y23" s="29"/>
+      <c r="Z23" s="10"/>
+      <c r="AC23" s="29"/>
+      <c r="AD23" s="36"/>
+      <c r="AE23" s="37"/>
+      <c r="AF23" s="37"/>
+      <c r="AG23" s="29"/>
+      <c r="AH23" s="10"/>
+      <c r="AJ23" s="21"/>
+      <c r="AK23" s="10"/>
+      <c r="AL23" s="12"/>
+    </row>
+    <row r="24" spans="1:38">
+      <c r="A24" s="97"/>
+      <c r="B24" s="87" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="12"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="10"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="10"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="10"/>
+      <c r="Q24" s="29"/>
+      <c r="R24" s="10"/>
+      <c r="V24" s="25"/>
+      <c r="Y24" s="29"/>
+      <c r="Z24" s="10"/>
+      <c r="AC24" s="29"/>
+      <c r="AD24" s="36"/>
+      <c r="AE24" s="37"/>
+      <c r="AF24" s="37"/>
+      <c r="AG24" s="35"/>
+      <c r="AH24" s="36"/>
+      <c r="AJ24" s="21"/>
+      <c r="AK24" s="10"/>
+    </row>
+    <row r="25" spans="1:38">
+      <c r="B25" s="26"/>
+      <c r="D25" s="1"/>
+      <c r="Q25" s="29"/>
+      <c r="AG25" s="29"/>
+    </row>
+    <row r="26" spans="1:38">
+      <c r="B26" s="3"/>
+    </row>
+    <row r="27" spans="1:38">
+      <c r="C27" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="17"/>
+      <c r="R27" s="17"/>
+      <c r="S27" s="17"/>
+      <c r="T27" s="17"/>
+      <c r="U27" s="17"/>
+      <c r="V27" s="17"/>
+      <c r="W27" s="17"/>
+      <c r="X27" s="17"/>
+      <c r="Y27" s="17"/>
+      <c r="Z27" s="18"/>
+      <c r="AA27" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB27" s="17"/>
+      <c r="AC27" s="17"/>
+      <c r="AD27" s="17"/>
+      <c r="AE27" s="17"/>
+      <c r="AF27" s="17"/>
+      <c r="AG27" s="17"/>
+      <c r="AH27" s="17"/>
+      <c r="AI27" s="17"/>
+      <c r="AJ27" s="17"/>
+      <c r="AK27" s="18"/>
+    </row>
+    <row r="28" spans="1:38">
+      <c r="A28" s="33"/>
+      <c r="B28" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="9">
+        <v>40259</v>
+      </c>
+      <c r="D28" s="7">
+        <v>40260</v>
+      </c>
+      <c r="E28" s="7">
+        <v>40261</v>
+      </c>
+      <c r="F28" s="8">
+        <v>40262</v>
+      </c>
+      <c r="G28" s="7">
+        <v>40266</v>
+      </c>
+      <c r="H28" s="7">
+        <v>40267</v>
+      </c>
+      <c r="I28" s="7">
+        <v>40268</v>
+      </c>
+      <c r="J28" s="8">
+        <v>40269</v>
+      </c>
+      <c r="K28" s="7">
+        <v>40273</v>
+      </c>
+      <c r="L28" s="7">
+        <v>40274</v>
+      </c>
+      <c r="M28" s="7">
+        <v>40275</v>
+      </c>
+      <c r="N28" s="8">
+        <v>40276</v>
+      </c>
+      <c r="O28" s="7">
+        <v>40280</v>
+      </c>
+      <c r="P28" s="7">
+        <v>40281</v>
+      </c>
+      <c r="Q28" s="7">
+        <v>40282</v>
+      </c>
+      <c r="R28" s="8">
+        <v>40283</v>
+      </c>
+      <c r="S28" s="7">
+        <v>40287</v>
+      </c>
+      <c r="T28" s="7">
+        <v>40288</v>
+      </c>
+      <c r="U28" s="7">
+        <v>40289</v>
+      </c>
+      <c r="V28" s="23">
+        <v>40290</v>
+      </c>
+      <c r="W28" s="7">
+        <v>40294</v>
+      </c>
+      <c r="X28" s="7">
+        <v>40295</v>
+      </c>
+      <c r="Y28" s="7">
+        <v>40296</v>
+      </c>
+      <c r="Z28" s="8">
+        <v>40297</v>
+      </c>
+      <c r="AA28" s="7">
+        <v>40301</v>
+      </c>
+      <c r="AB28" s="7">
+        <v>40302</v>
+      </c>
+      <c r="AC28" s="7">
+        <v>40303</v>
+      </c>
+      <c r="AD28" s="8">
+        <v>40304</v>
+      </c>
+      <c r="AE28" s="7">
+        <v>40308</v>
+      </c>
+      <c r="AF28" s="7">
+        <v>40309</v>
+      </c>
+      <c r="AG28" s="7">
+        <v>40310</v>
+      </c>
+      <c r="AH28" s="8">
+        <v>40311</v>
+      </c>
+      <c r="AI28" s="20">
+        <v>40315</v>
+      </c>
+      <c r="AJ28" s="19">
+        <v>40316</v>
+      </c>
+      <c r="AK28" s="22">
+        <v>40317</v>
+      </c>
+    </row>
+    <row r="29" spans="1:38">
+      <c r="A29" s="99"/>
+      <c r="B29" s="88" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="38"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="40"/>
+      <c r="K29" s="38"/>
+      <c r="L29" s="39"/>
+      <c r="M29" s="39"/>
+      <c r="N29" s="40"/>
+      <c r="O29" s="38"/>
+      <c r="P29" s="39"/>
+      <c r="Q29" s="39"/>
+      <c r="R29" s="40"/>
+      <c r="S29" s="38"/>
+      <c r="T29" s="39"/>
+      <c r="U29" s="60"/>
+      <c r="V29" s="61"/>
+      <c r="W29" s="38"/>
+      <c r="X29" s="39"/>
+      <c r="Y29" s="39"/>
+      <c r="Z29" s="40"/>
+      <c r="AA29" s="38"/>
+      <c r="AB29" s="39"/>
+      <c r="AC29" s="39"/>
+      <c r="AD29" s="40"/>
+      <c r="AE29" s="38"/>
+      <c r="AF29" s="39"/>
+      <c r="AG29" s="39"/>
+      <c r="AH29" s="40"/>
+      <c r="AI29" s="70"/>
+      <c r="AJ29" s="71"/>
+      <c r="AK29" s="40"/>
+    </row>
+    <row r="30" spans="1:38">
+      <c r="A30" s="100"/>
+      <c r="B30" s="89" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="56"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="43"/>
+      <c r="K30" s="41"/>
+      <c r="L30" s="42"/>
+      <c r="M30" s="42"/>
+      <c r="N30" s="43"/>
+      <c r="O30" s="41"/>
+      <c r="P30" s="42"/>
+      <c r="Q30" s="42"/>
+      <c r="R30" s="43"/>
+      <c r="S30" s="41"/>
+      <c r="T30" s="62"/>
+      <c r="U30" s="54"/>
+      <c r="V30" s="63"/>
+      <c r="W30" s="41"/>
+      <c r="X30" s="42"/>
+      <c r="Y30" s="42"/>
+      <c r="Z30" s="43"/>
+      <c r="AA30" s="41"/>
+      <c r="AB30" s="42"/>
+      <c r="AC30" s="42"/>
+      <c r="AD30" s="43"/>
+      <c r="AE30" s="41"/>
+      <c r="AF30" s="42"/>
+      <c r="AG30" s="42"/>
+      <c r="AH30" s="43"/>
+      <c r="AI30" s="58"/>
+      <c r="AJ30" s="72"/>
+      <c r="AK30" s="43"/>
+    </row>
+    <row r="31" spans="1:38">
+      <c r="A31" s="98"/>
+      <c r="B31" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" s="41"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="42"/>
+      <c r="I31" s="42"/>
+      <c r="J31" s="43"/>
+      <c r="K31" s="41"/>
+      <c r="L31" s="42"/>
+      <c r="M31" s="42"/>
+      <c r="N31" s="43"/>
+      <c r="O31" s="41"/>
+      <c r="P31" s="42"/>
+      <c r="Q31" s="42"/>
+      <c r="R31" s="43"/>
+      <c r="S31" s="41"/>
+      <c r="T31" s="42"/>
+      <c r="U31" s="54"/>
+      <c r="V31" s="63"/>
+      <c r="W31" s="41"/>
+      <c r="X31" s="42"/>
+      <c r="Y31" s="42"/>
+      <c r="Z31" s="43"/>
+      <c r="AA31" s="41"/>
+      <c r="AB31" s="42"/>
+      <c r="AC31" s="42"/>
+      <c r="AD31" s="43"/>
+      <c r="AE31" s="41"/>
+      <c r="AF31" s="42"/>
+      <c r="AG31" s="42"/>
+      <c r="AH31" s="43"/>
+      <c r="AI31" s="58"/>
+      <c r="AJ31" s="72"/>
+      <c r="AK31" s="43"/>
+    </row>
+    <row r="32" spans="1:38">
+      <c r="A32" s="80"/>
+      <c r="B32" s="85" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="50"/>
+      <c r="D32" s="51"/>
+      <c r="E32" s="51"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="42"/>
+      <c r="I32" s="42"/>
+      <c r="J32" s="43"/>
+      <c r="K32" s="41"/>
+      <c r="L32" s="42"/>
+      <c r="M32" s="42"/>
+      <c r="N32" s="43"/>
+      <c r="O32" s="41"/>
+      <c r="P32" s="42"/>
+      <c r="Q32" s="42"/>
+      <c r="R32" s="43"/>
+      <c r="S32" s="41"/>
+      <c r="T32" s="42"/>
+      <c r="U32" s="54"/>
+      <c r="V32" s="63"/>
+      <c r="W32" s="41"/>
+      <c r="X32" s="42"/>
+      <c r="Y32" s="42"/>
+      <c r="Z32" s="43"/>
+      <c r="AA32" s="41"/>
+      <c r="AB32" s="42"/>
+      <c r="AC32" s="42"/>
+      <c r="AD32" s="43"/>
+      <c r="AE32" s="41"/>
+      <c r="AF32" s="42"/>
+      <c r="AG32" s="42"/>
+      <c r="AH32" s="43"/>
+      <c r="AI32" s="58"/>
+      <c r="AJ32" s="72"/>
+      <c r="AK32" s="43"/>
+    </row>
+    <row r="33" spans="1:37">
+      <c r="A33" s="98"/>
+      <c r="B33" s="85" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="41"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="41"/>
+      <c r="H33" s="42"/>
+      <c r="I33" s="42"/>
+      <c r="J33" s="43"/>
+      <c r="K33" s="41"/>
+      <c r="L33" s="42"/>
+      <c r="M33" s="42"/>
+      <c r="N33" s="43"/>
+      <c r="O33" s="41"/>
+      <c r="P33" s="42"/>
+      <c r="Q33" s="42"/>
+      <c r="R33" s="43"/>
+      <c r="S33" s="41"/>
+      <c r="T33" s="42"/>
+      <c r="U33" s="54"/>
+      <c r="V33" s="63"/>
+      <c r="W33" s="41"/>
+      <c r="X33" s="42"/>
+      <c r="Y33" s="42"/>
+      <c r="Z33" s="43"/>
+      <c r="AA33" s="41"/>
+      <c r="AB33" s="42"/>
+      <c r="AC33" s="42"/>
+      <c r="AD33" s="43"/>
+      <c r="AE33" s="41"/>
+      <c r="AF33" s="42"/>
+      <c r="AG33" s="42"/>
+      <c r="AH33" s="43"/>
+      <c r="AI33" s="58"/>
+      <c r="AJ33" s="72"/>
+      <c r="AK33" s="43"/>
+    </row>
+    <row r="34" spans="1:37">
+      <c r="A34" s="80"/>
+      <c r="B34" s="81" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="41"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="41"/>
+      <c r="H34" s="45"/>
+      <c r="I34" s="45"/>
+      <c r="J34" s="43"/>
+      <c r="K34" s="41"/>
+      <c r="L34" s="42"/>
+      <c r="M34" s="42"/>
+      <c r="N34" s="43"/>
+      <c r="O34" s="41"/>
+      <c r="P34" s="42"/>
+      <c r="Q34" s="42"/>
+      <c r="R34" s="43"/>
+      <c r="S34" s="41"/>
+      <c r="T34" s="42"/>
+      <c r="U34" s="54"/>
+      <c r="V34" s="63"/>
+      <c r="W34" s="41"/>
+      <c r="X34" s="42"/>
+      <c r="Y34" s="42"/>
+      <c r="Z34" s="43"/>
+      <c r="AA34" s="41"/>
+      <c r="AB34" s="42"/>
+      <c r="AC34" s="42"/>
+      <c r="AD34" s="43"/>
+      <c r="AE34" s="41"/>
+      <c r="AF34" s="42"/>
+      <c r="AG34" s="42"/>
+      <c r="AH34" s="43"/>
+      <c r="AI34" s="58"/>
+      <c r="AJ34" s="72"/>
+      <c r="AK34" s="43"/>
+    </row>
+    <row r="35" spans="1:37">
+      <c r="A35" s="95"/>
+      <c r="B35" s="81" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" s="41"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="41"/>
+      <c r="H35" s="42"/>
+      <c r="I35" s="42"/>
+      <c r="J35" s="43"/>
+      <c r="K35" s="41"/>
+      <c r="L35" s="42"/>
+      <c r="M35" s="54"/>
+      <c r="N35" s="55"/>
+      <c r="O35" s="58"/>
+      <c r="P35" s="51"/>
+      <c r="Q35" s="51"/>
+      <c r="R35" s="57"/>
+      <c r="S35" s="59"/>
+      <c r="T35" s="42"/>
+      <c r="U35" s="54"/>
+      <c r="V35" s="63"/>
+      <c r="W35" s="41"/>
+      <c r="X35" s="42"/>
+      <c r="Y35" s="42"/>
+      <c r="Z35" s="43"/>
+      <c r="AA35" s="41"/>
+      <c r="AB35" s="42"/>
+      <c r="AC35" s="42"/>
+      <c r="AD35" s="43"/>
+      <c r="AE35" s="41"/>
+      <c r="AF35" s="42"/>
+      <c r="AG35" s="42"/>
+      <c r="AH35" s="43"/>
+      <c r="AI35" s="58"/>
+      <c r="AJ35" s="72"/>
+      <c r="AK35" s="43"/>
+    </row>
+    <row r="36" spans="1:37">
+      <c r="A36" s="95"/>
+      <c r="B36" s="85" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" s="41"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="41"/>
+      <c r="H36" s="42"/>
+      <c r="I36" s="42"/>
+      <c r="J36" s="43"/>
+      <c r="K36" s="41"/>
+      <c r="L36" s="42"/>
+      <c r="M36" s="42"/>
+      <c r="N36" s="43"/>
+      <c r="O36" s="41"/>
+      <c r="P36" s="42"/>
+      <c r="Q36" s="42"/>
+      <c r="R36" s="43"/>
+      <c r="S36" s="41"/>
+      <c r="T36" s="42"/>
+      <c r="U36" s="54"/>
+      <c r="V36" s="63"/>
+      <c r="W36" s="41"/>
+      <c r="X36" s="42"/>
+      <c r="Y36" s="42"/>
+      <c r="Z36" s="43"/>
+      <c r="AA36" s="41"/>
+      <c r="AB36" s="42"/>
+      <c r="AC36" s="42"/>
+      <c r="AD36" s="43"/>
+      <c r="AE36" s="41"/>
+      <c r="AF36" s="42"/>
+      <c r="AG36" s="42"/>
+      <c r="AH36" s="43"/>
+      <c r="AI36" s="58"/>
+      <c r="AJ36" s="72"/>
+      <c r="AK36" s="43"/>
+    </row>
+    <row r="37" spans="1:37">
+      <c r="A37" s="98"/>
+      <c r="B37" s="96" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37" s="41"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="43"/>
+      <c r="G37" s="41"/>
+      <c r="H37" s="42"/>
+      <c r="I37" s="42"/>
+      <c r="J37" s="43"/>
+      <c r="K37" s="41"/>
+      <c r="L37" s="42"/>
+      <c r="M37" s="42"/>
+      <c r="N37" s="43"/>
+      <c r="O37" s="41"/>
+      <c r="P37" s="42"/>
+      <c r="Q37" s="42"/>
+      <c r="R37" s="43"/>
+      <c r="S37" s="41"/>
+      <c r="T37" s="42"/>
+      <c r="U37" s="54"/>
+      <c r="V37" s="63"/>
+      <c r="W37" s="41"/>
+      <c r="X37" s="42"/>
+      <c r="Y37" s="42"/>
+      <c r="Z37" s="43"/>
+      <c r="AA37" s="41"/>
+      <c r="AB37" s="42"/>
+      <c r="AC37" s="42"/>
+      <c r="AD37" s="43"/>
+      <c r="AE37" s="41"/>
+      <c r="AF37" s="42"/>
+      <c r="AG37" s="42"/>
+      <c r="AH37" s="43"/>
+      <c r="AI37" s="58"/>
+      <c r="AJ37" s="72"/>
+      <c r="AK37" s="43"/>
+    </row>
+    <row r="38" spans="1:37">
+      <c r="A38" s="80"/>
+      <c r="B38" s="94" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38" s="41"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="43"/>
+      <c r="G38" s="41"/>
+      <c r="H38" s="42"/>
+      <c r="I38" s="42"/>
+      <c r="J38" s="46"/>
+      <c r="K38" s="56"/>
+      <c r="L38" s="42"/>
+      <c r="M38" s="42"/>
+      <c r="N38" s="43"/>
+      <c r="O38" s="41"/>
+      <c r="P38" s="42"/>
+      <c r="Q38" s="42"/>
+      <c r="R38" s="43"/>
+      <c r="S38" s="41"/>
+      <c r="T38" s="42"/>
+      <c r="U38" s="54"/>
+      <c r="V38" s="63"/>
+      <c r="W38" s="41"/>
+      <c r="X38" s="42"/>
+      <c r="Y38" s="42"/>
+      <c r="Z38" s="43"/>
+      <c r="AA38" s="41"/>
+      <c r="AB38" s="42"/>
+      <c r="AC38" s="42"/>
+      <c r="AD38" s="43"/>
+      <c r="AE38" s="41"/>
+      <c r="AF38" s="42"/>
+      <c r="AG38" s="42"/>
+      <c r="AH38" s="43"/>
+      <c r="AI38" s="58"/>
+      <c r="AJ38" s="72"/>
+      <c r="AK38" s="43"/>
+    </row>
+    <row r="39" spans="1:37">
+      <c r="A39" s="80"/>
+      <c r="B39" s="81" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" s="41"/>
+      <c r="D39" s="42"/>
+      <c r="E39" s="42"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="42"/>
+      <c r="I39" s="42"/>
+      <c r="J39" s="43"/>
+      <c r="K39" s="41"/>
+      <c r="L39" s="51"/>
+      <c r="M39" s="42"/>
+      <c r="N39" s="43"/>
+      <c r="O39" s="41"/>
+      <c r="P39" s="42"/>
+      <c r="Q39" s="42"/>
+      <c r="R39" s="43"/>
+      <c r="S39" s="41"/>
+      <c r="T39" s="42"/>
+      <c r="U39" s="54"/>
+      <c r="V39" s="63"/>
+      <c r="W39" s="41"/>
+      <c r="X39" s="42"/>
+      <c r="Y39" s="42"/>
+      <c r="Z39" s="43"/>
+      <c r="AA39" s="41"/>
+      <c r="AB39" s="42"/>
+      <c r="AC39" s="42"/>
+      <c r="AD39" s="43"/>
+      <c r="AE39" s="41"/>
+      <c r="AF39" s="42"/>
+      <c r="AG39" s="42"/>
+      <c r="AH39" s="43"/>
+      <c r="AI39" s="58"/>
+      <c r="AJ39" s="72"/>
+      <c r="AK39" s="43"/>
+    </row>
+    <row r="40" spans="1:37">
+      <c r="A40" s="95"/>
+      <c r="B40" s="81" t="s">
+        <v>26</v>
+      </c>
+      <c r="C40" s="41"/>
+      <c r="D40" s="42"/>
+      <c r="E40" s="42"/>
+      <c r="F40" s="43"/>
+      <c r="G40" s="41"/>
+      <c r="H40" s="42"/>
+      <c r="I40" s="42"/>
+      <c r="J40" s="43"/>
+      <c r="K40" s="41"/>
+      <c r="L40" s="42"/>
+      <c r="M40" s="51"/>
+      <c r="N40" s="57"/>
+      <c r="O40" s="59"/>
+      <c r="P40" s="42"/>
+      <c r="Q40" s="54"/>
+      <c r="R40" s="55"/>
+      <c r="S40" s="58"/>
+      <c r="T40" s="42"/>
+      <c r="U40" s="54"/>
+      <c r="V40" s="63"/>
+      <c r="W40" s="41"/>
+      <c r="X40" s="42"/>
+      <c r="Y40" s="42"/>
+      <c r="Z40" s="43"/>
+      <c r="AA40" s="41"/>
+      <c r="AB40" s="42"/>
+      <c r="AC40" s="42"/>
+      <c r="AD40" s="43"/>
+      <c r="AE40" s="41"/>
+      <c r="AF40" s="42"/>
+      <c r="AG40" s="42"/>
+      <c r="AH40" s="43"/>
+      <c r="AI40" s="58"/>
+      <c r="AJ40" s="72"/>
+      <c r="AK40" s="43"/>
+    </row>
+    <row r="41" spans="1:37">
+      <c r="A41" s="95"/>
+      <c r="B41" s="81" t="s">
+        <v>27</v>
+      </c>
+      <c r="C41" s="41"/>
+      <c r="D41" s="42"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="43"/>
+      <c r="G41" s="41"/>
+      <c r="H41" s="42"/>
+      <c r="I41" s="42"/>
+      <c r="J41" s="43"/>
+      <c r="K41" s="41"/>
+      <c r="L41" s="42"/>
+      <c r="M41" s="42"/>
+      <c r="N41" s="43"/>
+      <c r="O41" s="41"/>
+      <c r="P41" s="42"/>
+      <c r="Q41" s="42"/>
+      <c r="R41" s="43"/>
+      <c r="S41" s="41"/>
+      <c r="T41" s="64"/>
+      <c r="U41" s="64"/>
+      <c r="V41" s="57"/>
+      <c r="W41" s="41"/>
+      <c r="X41" s="42"/>
+      <c r="Y41" s="42"/>
+      <c r="Z41" s="43"/>
+      <c r="AA41" s="41"/>
+      <c r="AB41" s="42"/>
+      <c r="AC41" s="42"/>
+      <c r="AD41" s="43"/>
+      <c r="AE41" s="41"/>
+      <c r="AF41" s="42"/>
+      <c r="AG41" s="42"/>
+      <c r="AH41" s="43"/>
+      <c r="AI41" s="58"/>
+      <c r="AJ41" s="72"/>
+      <c r="AK41" s="43"/>
+    </row>
+    <row r="42" spans="1:37">
+      <c r="A42" s="95"/>
+      <c r="B42" s="81" t="s">
+        <v>30</v>
+      </c>
+      <c r="C42" s="41"/>
+      <c r="D42" s="42"/>
+      <c r="E42" s="42"/>
+      <c r="F42" s="43"/>
+      <c r="G42" s="41"/>
+      <c r="H42" s="42"/>
+      <c r="I42" s="42"/>
+      <c r="J42" s="43"/>
+      <c r="K42" s="41"/>
+      <c r="L42" s="42"/>
+      <c r="M42" s="42"/>
+      <c r="N42" s="43"/>
+      <c r="O42" s="41"/>
+      <c r="P42" s="42"/>
+      <c r="Q42" s="42"/>
+      <c r="R42" s="43"/>
+      <c r="S42" s="41"/>
+      <c r="T42" s="42"/>
+      <c r="U42" s="54"/>
+      <c r="V42" s="63"/>
+      <c r="W42" s="59"/>
+      <c r="X42" s="64"/>
+      <c r="Y42" s="64"/>
+      <c r="Z42" s="43"/>
+      <c r="AA42" s="41"/>
+      <c r="AB42" s="42"/>
+      <c r="AC42" s="42"/>
+      <c r="AD42" s="43"/>
+      <c r="AE42" s="41"/>
+      <c r="AF42" s="42"/>
+      <c r="AG42" s="42"/>
+      <c r="AH42" s="43"/>
+      <c r="AI42" s="58"/>
+      <c r="AJ42" s="72"/>
+      <c r="AK42" s="43"/>
+    </row>
+    <row r="43" spans="1:37">
+      <c r="A43" s="95"/>
+      <c r="B43" s="85" t="s">
+        <v>19</v>
+      </c>
+      <c r="C43" s="41"/>
+      <c r="D43" s="42"/>
+      <c r="E43" s="42"/>
+      <c r="F43" s="43"/>
+      <c r="G43" s="41"/>
+      <c r="H43" s="42"/>
+      <c r="I43" s="42"/>
+      <c r="J43" s="43"/>
+      <c r="K43" s="41"/>
+      <c r="L43" s="42"/>
+      <c r="M43" s="42"/>
+      <c r="N43" s="43"/>
+      <c r="O43" s="41"/>
+      <c r="P43" s="42"/>
+      <c r="Q43" s="42"/>
+      <c r="R43" s="43"/>
+      <c r="S43" s="41"/>
+      <c r="T43" s="42"/>
+      <c r="U43" s="54"/>
+      <c r="V43" s="63"/>
+      <c r="W43" s="41"/>
+      <c r="X43" s="42"/>
+      <c r="Y43" s="42"/>
+      <c r="Z43" s="57"/>
+      <c r="AA43" s="59"/>
+      <c r="AB43" s="64"/>
+      <c r="AC43" s="64"/>
+      <c r="AD43" s="57"/>
+      <c r="AE43" s="59"/>
+      <c r="AF43" s="64"/>
+      <c r="AG43" s="64"/>
+      <c r="AH43" s="43"/>
+      <c r="AI43" s="58"/>
+      <c r="AJ43" s="72"/>
+      <c r="AK43" s="43"/>
+    </row>
+    <row r="44" spans="1:37">
+      <c r="A44" s="95"/>
+      <c r="B44" s="93" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44" s="41"/>
+      <c r="D44" s="52"/>
+      <c r="E44" s="42"/>
+      <c r="F44" s="43"/>
+      <c r="G44" s="41"/>
+      <c r="H44" s="42"/>
+      <c r="I44" s="42"/>
+      <c r="J44" s="43"/>
+      <c r="K44" s="41"/>
+      <c r="L44" s="42"/>
+      <c r="M44" s="42"/>
+      <c r="N44" s="43"/>
+      <c r="O44" s="41"/>
+      <c r="P44" s="42"/>
+      <c r="Q44" s="42"/>
+      <c r="R44" s="43"/>
+      <c r="S44" s="41"/>
+      <c r="T44" s="42"/>
+      <c r="U44" s="54"/>
+      <c r="V44" s="63"/>
+      <c r="W44" s="41"/>
+      <c r="X44" s="42"/>
+      <c r="Y44" s="42"/>
+      <c r="Z44" s="43"/>
+      <c r="AA44" s="41"/>
+      <c r="AB44" s="42"/>
+      <c r="AC44" s="42"/>
+      <c r="AD44" s="57"/>
+      <c r="AE44" s="59"/>
+      <c r="AF44" s="64"/>
+      <c r="AG44" s="42"/>
+      <c r="AH44" s="43"/>
+      <c r="AI44" s="58"/>
+      <c r="AJ44" s="72"/>
+      <c r="AK44" s="43"/>
+    </row>
+    <row r="45" spans="1:37">
+      <c r="A45" s="97"/>
+      <c r="B45" s="87" t="s">
+        <v>49</v>
+      </c>
+      <c r="C45" s="47"/>
+      <c r="D45" s="53"/>
+      <c r="E45" s="48"/>
+      <c r="F45" s="49"/>
+      <c r="G45" s="47"/>
+      <c r="H45" s="48"/>
+      <c r="I45" s="48"/>
+      <c r="J45" s="49"/>
+      <c r="K45" s="47"/>
+      <c r="L45" s="48"/>
+      <c r="M45" s="48"/>
+      <c r="N45" s="49"/>
+      <c r="O45" s="47"/>
+      <c r="P45" s="48"/>
+      <c r="Q45" s="48"/>
+      <c r="R45" s="49"/>
+      <c r="S45" s="47"/>
+      <c r="T45" s="48"/>
+      <c r="U45" s="65"/>
+      <c r="V45" s="66"/>
+      <c r="W45" s="47"/>
+      <c r="X45" s="48"/>
+      <c r="Y45" s="48"/>
+      <c r="Z45" s="49"/>
+      <c r="AA45" s="47"/>
+      <c r="AB45" s="48"/>
+      <c r="AC45" s="48"/>
+      <c r="AD45" s="67"/>
+      <c r="AE45" s="68"/>
+      <c r="AF45" s="69"/>
+      <c r="AG45" s="69"/>
+      <c r="AH45" s="67"/>
+      <c r="AI45" s="73"/>
+      <c r="AJ45" s="74"/>
+      <c r="AK45" s="49"/>
+    </row>
+    <row r="46" spans="1:37">
+      <c r="I46" s="29"/>
+    </row>
+    <row r="48" spans="1:37">
+      <c r="C48" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D48" s="28"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="28"/>
+      <c r="G48" s="17"/>
+      <c r="H48" s="18"/>
+      <c r="I48" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="J48" s="17"/>
+      <c r="K48" s="17"/>
+      <c r="L48" s="17"/>
+      <c r="M48" s="17"/>
+      <c r="N48" s="17"/>
+      <c r="O48" s="17"/>
+      <c r="P48" s="17"/>
+      <c r="Q48" s="17"/>
+      <c r="R48" s="17"/>
+      <c r="S48" s="17"/>
+      <c r="T48" s="17"/>
+      <c r="U48" s="17"/>
+      <c r="V48" s="17"/>
+      <c r="W48" s="17"/>
+      <c r="X48" s="17"/>
+      <c r="Y48" s="17"/>
+      <c r="Z48" s="18"/>
+      <c r="AA48" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB48" s="17"/>
+      <c r="AC48" s="17"/>
+      <c r="AD48" s="17"/>
+      <c r="AE48" s="17"/>
+      <c r="AF48" s="17"/>
+      <c r="AG48" s="17"/>
+      <c r="AH48" s="17"/>
+      <c r="AI48" s="17"/>
+      <c r="AJ48" s="17"/>
+      <c r="AK48" s="18"/>
+    </row>
+    <row r="49" spans="1:38">
+      <c r="A49" s="33"/>
+      <c r="B49" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C49" s="9">
+        <v>40259</v>
+      </c>
+      <c r="D49" s="7">
+        <v>40260</v>
+      </c>
+      <c r="E49" s="7">
+        <v>40261</v>
+      </c>
+      <c r="F49" s="8">
+        <v>40262</v>
+      </c>
+      <c r="G49" s="7">
+        <v>40266</v>
+      </c>
+      <c r="H49" s="7">
+        <v>40267</v>
+      </c>
+      <c r="I49" s="7">
+        <v>40268</v>
+      </c>
+      <c r="J49" s="8">
+        <v>40269</v>
+      </c>
+      <c r="K49" s="7">
+        <v>40273</v>
+      </c>
+      <c r="L49" s="7">
+        <v>40274</v>
+      </c>
+      <c r="M49" s="7">
+        <v>40275</v>
+      </c>
+      <c r="N49" s="8">
+        <v>40276</v>
+      </c>
+      <c r="O49" s="7">
+        <v>40280</v>
+      </c>
+      <c r="P49" s="7">
+        <v>40281</v>
+      </c>
+      <c r="Q49" s="7">
+        <v>40282</v>
+      </c>
+      <c r="R49" s="8">
+        <v>40283</v>
+      </c>
+      <c r="S49" s="7">
+        <v>40287</v>
+      </c>
+      <c r="T49" s="7">
+        <v>40288</v>
+      </c>
+      <c r="U49" s="7">
+        <v>40289</v>
+      </c>
+      <c r="V49" s="23">
+        <v>40290</v>
+      </c>
+      <c r="W49" s="7">
+        <v>40294</v>
+      </c>
+      <c r="X49" s="7">
+        <v>40295</v>
+      </c>
+      <c r="Y49" s="7">
+        <v>40296</v>
+      </c>
+      <c r="Z49" s="8">
+        <v>40297</v>
+      </c>
+      <c r="AA49" s="7">
+        <v>40301</v>
+      </c>
+      <c r="AB49" s="7">
+        <v>40302</v>
+      </c>
+      <c r="AC49" s="7">
+        <v>40303</v>
+      </c>
+      <c r="AD49" s="8">
+        <v>40304</v>
+      </c>
+      <c r="AE49" s="7">
+        <v>40308</v>
+      </c>
+      <c r="AF49" s="7">
+        <v>40309</v>
+      </c>
+      <c r="AG49" s="7">
+        <v>40310</v>
+      </c>
+      <c r="AH49" s="8">
+        <v>40311</v>
+      </c>
+      <c r="AI49" s="20">
+        <v>40315</v>
+      </c>
+      <c r="AJ49" s="19">
+        <v>40316</v>
+      </c>
+      <c r="AK49" s="22">
+        <v>40317</v>
+      </c>
+    </row>
+    <row r="50" spans="1:38">
+      <c r="A50" s="99"/>
+      <c r="B50" s="79" t="s">
+        <v>21</v>
+      </c>
+      <c r="C50" s="38"/>
+      <c r="D50" s="75"/>
+      <c r="E50" s="75"/>
+      <c r="F50" s="76"/>
+      <c r="G50" s="77"/>
+      <c r="H50" s="75"/>
+      <c r="I50" s="75"/>
+      <c r="J50" s="76"/>
+      <c r="K50" s="77"/>
+      <c r="L50" s="75"/>
+      <c r="M50" s="75"/>
+      <c r="N50" s="76"/>
+      <c r="O50" s="38"/>
+      <c r="P50" s="39"/>
+      <c r="Q50" s="39"/>
+      <c r="R50" s="40"/>
+      <c r="S50" s="38"/>
+      <c r="T50" s="39"/>
+      <c r="U50" s="60"/>
+      <c r="V50" s="61"/>
+      <c r="W50" s="38"/>
+      <c r="X50" s="39"/>
+      <c r="Y50" s="39"/>
+      <c r="Z50" s="40"/>
+      <c r="AA50" s="38"/>
+      <c r="AB50" s="39"/>
+      <c r="AC50" s="39"/>
+      <c r="AD50" s="40"/>
+      <c r="AE50" s="38"/>
+      <c r="AF50" s="39"/>
+      <c r="AG50" s="39"/>
+      <c r="AH50" s="40"/>
+      <c r="AI50" s="70"/>
+      <c r="AJ50" s="71"/>
+      <c r="AK50" s="40"/>
+      <c r="AL50" s="12"/>
+    </row>
+    <row r="51" spans="1:38">
+      <c r="A51" s="80"/>
+      <c r="B51" s="81" t="s">
+        <v>47</v>
+      </c>
+      <c r="C51" s="41"/>
+      <c r="D51" s="42"/>
+      <c r="E51" s="42"/>
+      <c r="F51" s="43"/>
+      <c r="G51" s="41"/>
+      <c r="H51" s="42"/>
+      <c r="I51" s="42"/>
+      <c r="J51" s="43"/>
+      <c r="K51" s="41"/>
+      <c r="L51" s="42"/>
+      <c r="M51" s="54"/>
+      <c r="N51" s="43"/>
+      <c r="O51" s="41"/>
+      <c r="P51" s="51"/>
+      <c r="Q51" s="42"/>
+      <c r="R51" s="43"/>
+      <c r="S51" s="41"/>
+      <c r="T51" s="42"/>
+      <c r="U51" s="54"/>
+      <c r="V51" s="63"/>
+      <c r="W51" s="41"/>
+      <c r="X51" s="42"/>
+      <c r="Y51" s="42"/>
+      <c r="Z51" s="43"/>
+      <c r="AA51" s="41"/>
+      <c r="AB51" s="42"/>
+      <c r="AC51" s="42"/>
+      <c r="AD51" s="43"/>
+      <c r="AE51" s="41"/>
+      <c r="AF51" s="42"/>
+      <c r="AG51" s="42"/>
+      <c r="AH51" s="43"/>
+      <c r="AI51" s="58"/>
+      <c r="AJ51" s="72"/>
+      <c r="AK51" s="43"/>
+      <c r="AL51" s="12"/>
+    </row>
+    <row r="52" spans="1:38">
+      <c r="A52" s="98"/>
+      <c r="B52" s="83" t="s">
+        <v>44</v>
+      </c>
+      <c r="C52" s="41"/>
+      <c r="D52" s="42"/>
+      <c r="E52" s="42"/>
+      <c r="F52" s="43"/>
+      <c r="G52" s="41"/>
+      <c r="H52" s="42"/>
+      <c r="I52" s="42"/>
+      <c r="J52" s="43"/>
+      <c r="K52" s="41"/>
+      <c r="L52" s="42"/>
+      <c r="M52" s="42"/>
+      <c r="N52" s="43"/>
+      <c r="O52" s="41"/>
+      <c r="P52" s="42"/>
+      <c r="Q52" s="42"/>
+      <c r="R52" s="43"/>
+      <c r="S52" s="41"/>
+      <c r="T52" s="42"/>
+      <c r="U52" s="54"/>
+      <c r="V52" s="63"/>
+      <c r="W52" s="41"/>
+      <c r="X52" s="42"/>
+      <c r="Y52" s="42"/>
+      <c r="Z52" s="43"/>
+      <c r="AA52" s="41"/>
+      <c r="AB52" s="42"/>
+      <c r="AC52" s="42"/>
+      <c r="AD52" s="43"/>
+      <c r="AE52" s="41"/>
+      <c r="AF52" s="42"/>
+      <c r="AG52" s="42"/>
+      <c r="AH52" s="43"/>
+      <c r="AI52" s="58"/>
+      <c r="AJ52" s="72"/>
+      <c r="AK52" s="43"/>
+      <c r="AL52" s="12"/>
+    </row>
+    <row r="53" spans="1:38">
+      <c r="A53" s="80"/>
+      <c r="B53" s="84" t="s">
+        <v>46</v>
+      </c>
+      <c r="C53" s="41"/>
+      <c r="D53" s="42"/>
+      <c r="E53" s="42"/>
+      <c r="F53" s="43"/>
+      <c r="G53" s="41"/>
+      <c r="H53" s="42"/>
+      <c r="I53" s="42"/>
+      <c r="J53" s="43"/>
+      <c r="K53" s="41"/>
+      <c r="L53" s="42"/>
+      <c r="M53" s="42"/>
+      <c r="N53" s="43"/>
+      <c r="O53" s="41"/>
+      <c r="P53" s="42"/>
+      <c r="Q53" s="51"/>
+      <c r="R53" s="43"/>
+      <c r="S53" s="41"/>
+      <c r="T53" s="42"/>
+      <c r="U53" s="54"/>
+      <c r="V53" s="63"/>
+      <c r="W53" s="41"/>
+      <c r="X53" s="42"/>
+      <c r="Y53" s="42"/>
+      <c r="Z53" s="43"/>
+      <c r="AA53" s="41"/>
+      <c r="AB53" s="42"/>
+      <c r="AC53" s="42"/>
+      <c r="AD53" s="43"/>
+      <c r="AE53" s="41"/>
+      <c r="AF53" s="42"/>
+      <c r="AG53" s="42"/>
+      <c r="AH53" s="43"/>
+      <c r="AI53" s="58"/>
+      <c r="AJ53" s="72"/>
+      <c r="AK53" s="43"/>
+      <c r="AL53" s="12"/>
+    </row>
+    <row r="54" spans="1:38">
+      <c r="A54" s="80"/>
+      <c r="B54" s="84" t="s">
+        <v>43</v>
+      </c>
+      <c r="C54" s="41"/>
+      <c r="D54" s="42"/>
+      <c r="E54" s="42"/>
+      <c r="F54" s="43"/>
+      <c r="G54" s="41"/>
+      <c r="H54" s="42"/>
+      <c r="I54" s="42"/>
+      <c r="J54" s="43"/>
+      <c r="K54" s="41"/>
+      <c r="L54" s="42"/>
+      <c r="M54" s="42"/>
+      <c r="N54" s="43"/>
+      <c r="O54" s="41"/>
+      <c r="P54" s="42"/>
+      <c r="Q54" s="42"/>
+      <c r="R54" s="46"/>
+      <c r="S54" s="41"/>
+      <c r="T54" s="42"/>
+      <c r="U54" s="54"/>
+      <c r="V54" s="63"/>
+      <c r="W54" s="41"/>
+      <c r="X54" s="42"/>
+      <c r="Y54" s="42"/>
+      <c r="Z54" s="43"/>
+      <c r="AA54" s="41"/>
+      <c r="AB54" s="42"/>
+      <c r="AC54" s="42"/>
+      <c r="AD54" s="43"/>
+      <c r="AE54" s="41"/>
+      <c r="AF54" s="42"/>
+      <c r="AG54" s="42"/>
+      <c r="AH54" s="43"/>
+      <c r="AI54" s="58"/>
+      <c r="AJ54" s="72"/>
+      <c r="AK54" s="43"/>
+      <c r="AL54" s="12"/>
+    </row>
+    <row r="55" spans="1:38">
+      <c r="A55" s="80"/>
+      <c r="B55" s="84" t="s">
+        <v>27</v>
+      </c>
+      <c r="C55" s="41"/>
+      <c r="D55" s="42"/>
+      <c r="E55" s="42"/>
+      <c r="F55" s="43"/>
+      <c r="G55" s="41"/>
+      <c r="H55" s="42"/>
+      <c r="I55" s="42"/>
+      <c r="J55" s="43"/>
+      <c r="K55" s="41"/>
+      <c r="L55" s="42"/>
+      <c r="M55" s="42"/>
+      <c r="N55" s="43"/>
+      <c r="O55" s="41"/>
+      <c r="P55" s="42"/>
+      <c r="Q55" s="42"/>
+      <c r="R55" s="43"/>
+      <c r="S55" s="56"/>
+      <c r="T55" s="51"/>
+      <c r="U55" s="54"/>
+      <c r="V55" s="63"/>
+      <c r="W55" s="41"/>
+      <c r="X55" s="42"/>
+      <c r="Y55" s="42"/>
+      <c r="Z55" s="43"/>
+      <c r="AA55" s="41"/>
+      <c r="AB55" s="42"/>
+      <c r="AC55" s="42"/>
+      <c r="AD55" s="43"/>
+      <c r="AE55" s="41"/>
+      <c r="AF55" s="42"/>
+      <c r="AG55" s="42"/>
+      <c r="AH55" s="43"/>
+      <c r="AI55" s="58"/>
+      <c r="AJ55" s="72"/>
+      <c r="AK55" s="43"/>
+      <c r="AL55" s="12"/>
+    </row>
+    <row r="56" spans="1:38">
+      <c r="A56" s="80"/>
+      <c r="B56" s="84" t="s">
+        <v>42</v>
+      </c>
+      <c r="C56" s="41"/>
+      <c r="D56" s="42"/>
+      <c r="E56" s="42"/>
+      <c r="F56" s="43"/>
+      <c r="G56" s="41"/>
+      <c r="H56" s="42"/>
+      <c r="I56" s="42"/>
+      <c r="J56" s="43"/>
+      <c r="K56" s="41"/>
+      <c r="L56" s="42"/>
+      <c r="M56" s="42"/>
+      <c r="N56" s="43"/>
+      <c r="O56" s="41"/>
+      <c r="P56" s="42"/>
+      <c r="Q56" s="42"/>
+      <c r="R56" s="43"/>
+      <c r="S56" s="41"/>
+      <c r="T56" s="42"/>
+      <c r="U56" s="78"/>
+      <c r="V56" s="63"/>
+      <c r="W56" s="41"/>
+      <c r="X56" s="42"/>
+      <c r="Y56" s="42"/>
+      <c r="Z56" s="43"/>
+      <c r="AA56" s="41"/>
+      <c r="AB56" s="42"/>
+      <c r="AC56" s="42"/>
+      <c r="AD56" s="43"/>
+      <c r="AE56" s="41"/>
+      <c r="AF56" s="42"/>
+      <c r="AG56" s="42"/>
+      <c r="AH56" s="43"/>
+      <c r="AI56" s="58"/>
+      <c r="AJ56" s="72"/>
+      <c r="AK56" s="43"/>
+      <c r="AL56" s="12"/>
+    </row>
+    <row r="57" spans="1:38">
+      <c r="A57" s="95"/>
+      <c r="B57" s="84" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="21"/>
-      <c r="W2" s="21"/>
-      <c r="X2" s="21"/>
-      <c r="Y2" s="22"/>
-      <c r="Z2" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA2" s="21"/>
-      <c r="AB2" s="21"/>
-      <c r="AC2" s="21"/>
-      <c r="AD2" s="21"/>
-      <c r="AE2" s="21"/>
-      <c r="AF2" s="21"/>
-      <c r="AG2" s="21"/>
-      <c r="AH2" s="21"/>
-      <c r="AI2" s="21"/>
-      <c r="AJ2" s="21"/>
-    </row>
-    <row r="3" spans="1:36" s="20" customFormat="1">
-      <c r="B3" s="28">
-        <v>40260</v>
-      </c>
-      <c r="C3" s="24">
-        <v>40261</v>
-      </c>
-      <c r="D3" s="25">
-        <v>40262</v>
-      </c>
-      <c r="E3" s="24">
-        <v>40263</v>
-      </c>
-      <c r="F3" s="24">
-        <v>40267</v>
-      </c>
-      <c r="G3" s="24">
-        <v>40268</v>
-      </c>
-      <c r="H3" s="25">
-        <v>40269</v>
-      </c>
-      <c r="I3" s="24">
-        <v>40270</v>
-      </c>
-      <c r="J3" s="24">
-        <v>40274</v>
-      </c>
-      <c r="K3" s="24">
-        <v>40275</v>
-      </c>
-      <c r="L3" s="25">
-        <v>40276</v>
-      </c>
-      <c r="M3" s="24">
-        <v>40277</v>
-      </c>
-      <c r="N3" s="24">
-        <v>40281</v>
-      </c>
-      <c r="O3" s="24">
-        <v>40282</v>
-      </c>
-      <c r="P3" s="25">
-        <v>40283</v>
-      </c>
-      <c r="Q3" s="24">
-        <v>40284</v>
-      </c>
-      <c r="R3" s="24">
-        <v>40288</v>
-      </c>
-      <c r="S3" s="24">
-        <v>40289</v>
-      </c>
-      <c r="T3" s="26">
-        <v>40290</v>
-      </c>
-      <c r="U3" s="24">
-        <v>40291</v>
-      </c>
-      <c r="V3" s="24">
-        <v>40295</v>
-      </c>
-      <c r="W3" s="24">
-        <v>40296</v>
-      </c>
-      <c r="X3" s="25">
-        <v>40297</v>
-      </c>
-      <c r="Y3" s="24">
-        <v>40298</v>
-      </c>
-      <c r="Z3" s="24">
-        <v>40302</v>
-      </c>
-      <c r="AA3" s="24">
-        <v>40303</v>
-      </c>
-      <c r="AB3" s="25">
-        <v>40304</v>
-      </c>
-      <c r="AC3" s="24">
-        <v>40305</v>
-      </c>
-      <c r="AD3" s="24">
-        <v>40309</v>
-      </c>
-      <c r="AE3" s="24">
-        <v>40310</v>
-      </c>
-      <c r="AF3" s="25">
-        <v>40311</v>
-      </c>
-      <c r="AG3" s="24">
-        <v>40312</v>
-      </c>
-      <c r="AH3" s="27">
-        <v>40316</v>
-      </c>
-      <c r="AI3" s="24">
-        <v>40317</v>
-      </c>
-      <c r="AJ3" s="25">
-        <v>40318</v>
-      </c>
-    </row>
-    <row r="4" spans="1:36">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:36">
-      <c r="A5" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:36">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="7"/>
-    </row>
-    <row r="7" spans="1:36">
-      <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="7"/>
-    </row>
-    <row r="8" spans="1:36">
-      <c r="A8" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:36">
-      <c r="A9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="7"/>
-    </row>
-    <row r="10" spans="1:36">
-      <c r="A10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="7"/>
-    </row>
-    <row r="11" spans="1:36">
-      <c r="A11" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:36">
-      <c r="A12" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:36">
-      <c r="A13" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-    </row>
-    <row r="14" spans="1:36">
-      <c r="A14" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-    </row>
-    <row r="15" spans="1:36">
-      <c r="A15" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:36">
-      <c r="A16" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19">
-      <c r="A17" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19">
-      <c r="A18" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19">
-      <c r="A19" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19">
-      <c r="A20" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19">
-      <c r="A21" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19">
-      <c r="A22" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19">
-      <c r="A23" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" s="4"/>
-    </row>
-    <row r="24" spans="1:19">
-      <c r="C24" s="1"/>
-    </row>
-    <row r="25" spans="1:19">
-      <c r="C25" s="1"/>
-    </row>
-    <row r="26" spans="1:19">
-      <c r="A26" s="6"/>
-    </row>
-    <row r="28" spans="1:19">
-      <c r="A28" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19">
-      <c r="A29" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19">
-      <c r="A30" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="S30" s="29"/>
-    </row>
-    <row r="31" spans="1:19">
-      <c r="A31" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19">
-      <c r="A32" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B32" s="8"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="9"/>
-    </row>
-    <row r="33" spans="1:32">
-      <c r="A33" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:32">
-      <c r="A34" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
-    </row>
-    <row r="35" spans="1:32">
-      <c r="A35" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="L35" s="18"/>
-      <c r="M35" s="18"/>
-      <c r="N35" s="18"/>
-      <c r="O35" s="7"/>
-      <c r="P35" s="7"/>
-      <c r="Q35" s="11"/>
-      <c r="R35" s="11"/>
-    </row>
-    <row r="36" spans="1:32">
-      <c r="A36" s="15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="37" spans="1:32">
-      <c r="A37" s="19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="38" spans="1:32">
-      <c r="A38" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="I38" s="7"/>
-      <c r="J38" s="7"/>
-    </row>
-    <row r="39" spans="1:32">
-      <c r="A39" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="K39" s="7"/>
-    </row>
-    <row r="40" spans="1:32">
-      <c r="A40" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L40" s="7"/>
-      <c r="M40" s="11"/>
-      <c r="N40" s="11"/>
-      <c r="P40" s="18"/>
-      <c r="Q40" s="18"/>
-      <c r="R40" s="18"/>
-    </row>
-    <row r="41" spans="1:32">
-      <c r="A41" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="S41" s="11"/>
-      <c r="T41" s="11"/>
-      <c r="U41" s="11"/>
-    </row>
-    <row r="42" spans="1:32">
-      <c r="A42" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="V42" s="11"/>
-      <c r="W42" s="11"/>
-      <c r="X42" s="11"/>
-    </row>
-    <row r="43" spans="1:32">
-      <c r="A43" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y43" s="11"/>
-      <c r="Z43" s="11"/>
-      <c r="AA43" s="11"/>
-      <c r="AB43" s="11"/>
-      <c r="AC43" s="11"/>
-      <c r="AD43" s="11"/>
-      <c r="AE43" s="11"/>
-      <c r="AF43" s="11"/>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1">
-      <c r="A54" s="5" t="s">
+      <c r="C57" s="41"/>
+      <c r="D57" s="42"/>
+      <c r="E57" s="42"/>
+      <c r="F57" s="43"/>
+      <c r="G57" s="41"/>
+      <c r="H57" s="42"/>
+      <c r="I57" s="42"/>
+      <c r="J57" s="43"/>
+      <c r="K57" s="41"/>
+      <c r="L57" s="42"/>
+      <c r="M57" s="42"/>
+      <c r="N57" s="43"/>
+      <c r="O57" s="41"/>
+      <c r="P57" s="42"/>
+      <c r="Q57" s="42"/>
+      <c r="R57" s="43"/>
+      <c r="S57" s="41"/>
+      <c r="T57" s="42"/>
+      <c r="U57" s="54"/>
+      <c r="V57" s="46"/>
+      <c r="W57" s="59"/>
+      <c r="X57" s="64"/>
+      <c r="Y57" s="42"/>
+      <c r="Z57" s="43"/>
+      <c r="AA57" s="41"/>
+      <c r="AB57" s="42"/>
+      <c r="AC57" s="42"/>
+      <c r="AD57" s="43"/>
+      <c r="AE57" s="41"/>
+      <c r="AF57" s="42"/>
+      <c r="AG57" s="42"/>
+      <c r="AH57" s="43"/>
+      <c r="AI57" s="58"/>
+      <c r="AJ57" s="72"/>
+      <c r="AK57" s="43"/>
+      <c r="AL57" s="12"/>
+    </row>
+    <row r="58" spans="1:38">
+      <c r="A58" s="95"/>
+      <c r="B58" s="81" t="s">
+        <v>45</v>
+      </c>
+      <c r="C58" s="41"/>
+      <c r="D58" s="42"/>
+      <c r="E58" s="42"/>
+      <c r="F58" s="43"/>
+      <c r="G58" s="41"/>
+      <c r="H58" s="42"/>
+      <c r="I58" s="42"/>
+      <c r="J58" s="43"/>
+      <c r="K58" s="41"/>
+      <c r="L58" s="42"/>
+      <c r="M58" s="42"/>
+      <c r="N58" s="43"/>
+      <c r="O58" s="41"/>
+      <c r="P58" s="42"/>
+      <c r="Q58" s="42"/>
+      <c r="R58" s="43"/>
+      <c r="S58" s="41"/>
+      <c r="T58" s="42"/>
+      <c r="U58" s="54"/>
+      <c r="V58" s="63"/>
+      <c r="W58" s="41"/>
+      <c r="X58" s="42"/>
+      <c r="Y58" s="64"/>
+      <c r="Z58" s="43"/>
+      <c r="AA58" s="41"/>
+      <c r="AB58" s="42"/>
+      <c r="AC58" s="42"/>
+      <c r="AD58" s="43"/>
+      <c r="AE58" s="41"/>
+      <c r="AF58" s="42"/>
+      <c r="AG58" s="42"/>
+      <c r="AH58" s="43"/>
+      <c r="AI58" s="58"/>
+      <c r="AJ58" s="72"/>
+      <c r="AK58" s="43"/>
+      <c r="AL58" s="12"/>
+    </row>
+    <row r="59" spans="1:38">
+      <c r="A59" s="95"/>
+      <c r="B59" s="81" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="55" spans="1:1">
-      <c r="A55" s="1" t="s">
+      <c r="C59" s="41"/>
+      <c r="D59" s="42"/>
+      <c r="E59" s="42"/>
+      <c r="F59" s="43"/>
+      <c r="G59" s="41"/>
+      <c r="H59" s="42"/>
+      <c r="I59" s="42"/>
+      <c r="J59" s="43"/>
+      <c r="K59" s="41"/>
+      <c r="L59" s="42"/>
+      <c r="M59" s="42"/>
+      <c r="N59" s="43"/>
+      <c r="O59" s="41"/>
+      <c r="P59" s="42"/>
+      <c r="Q59" s="42"/>
+      <c r="R59" s="43"/>
+      <c r="S59" s="41"/>
+      <c r="T59" s="42"/>
+      <c r="U59" s="54"/>
+      <c r="V59" s="63"/>
+      <c r="W59" s="41"/>
+      <c r="X59" s="42"/>
+      <c r="Y59" s="42"/>
+      <c r="Z59" s="57"/>
+      <c r="AA59" s="59"/>
+      <c r="AB59" s="64"/>
+      <c r="AC59" s="64"/>
+      <c r="AD59" s="43"/>
+      <c r="AE59" s="41"/>
+      <c r="AF59" s="42"/>
+      <c r="AG59" s="42"/>
+      <c r="AH59" s="43"/>
+      <c r="AI59" s="58"/>
+      <c r="AJ59" s="72"/>
+      <c r="AK59" s="43"/>
+      <c r="AL59" s="12"/>
+    </row>
+    <row r="60" spans="1:38">
+      <c r="A60" s="95"/>
+      <c r="B60" s="81" t="s">
+        <v>40</v>
+      </c>
+      <c r="C60" s="41"/>
+      <c r="D60" s="42"/>
+      <c r="E60" s="42"/>
+      <c r="F60" s="43"/>
+      <c r="G60" s="41"/>
+      <c r="H60" s="42"/>
+      <c r="I60" s="42"/>
+      <c r="J60" s="43"/>
+      <c r="K60" s="41"/>
+      <c r="L60" s="42"/>
+      <c r="M60" s="42"/>
+      <c r="N60" s="43"/>
+      <c r="O60" s="41"/>
+      <c r="P60" s="42"/>
+      <c r="Q60" s="42"/>
+      <c r="R60" s="43"/>
+      <c r="S60" s="41"/>
+      <c r="T60" s="42"/>
+      <c r="U60" s="54"/>
+      <c r="V60" s="63"/>
+      <c r="W60" s="41"/>
+      <c r="X60" s="42"/>
+      <c r="Y60" s="42"/>
+      <c r="Z60" s="43"/>
+      <c r="AA60" s="41"/>
+      <c r="AB60" s="42"/>
+      <c r="AC60" s="42"/>
+      <c r="AD60" s="57"/>
+      <c r="AE60" s="59"/>
+      <c r="AF60" s="64"/>
+      <c r="AG60" s="42"/>
+      <c r="AH60" s="43"/>
+      <c r="AI60" s="58"/>
+      <c r="AJ60" s="72"/>
+      <c r="AK60" s="43"/>
+      <c r="AL60" s="12"/>
+    </row>
+    <row r="61" spans="1:38">
+      <c r="A61" s="107"/>
+      <c r="B61" s="103" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="56" spans="1:1">
-      <c r="A56" s="1" t="s">
+      <c r="C61" s="41"/>
+      <c r="D61" s="42"/>
+      <c r="E61" s="42"/>
+      <c r="F61" s="43"/>
+      <c r="G61" s="41"/>
+      <c r="H61" s="42"/>
+      <c r="I61" s="42"/>
+      <c r="J61" s="43"/>
+      <c r="K61" s="41"/>
+      <c r="L61" s="42"/>
+      <c r="M61" s="42"/>
+      <c r="N61" s="43"/>
+      <c r="O61" s="104"/>
+      <c r="P61" s="105"/>
+      <c r="Q61" s="105"/>
+      <c r="R61" s="106"/>
+      <c r="S61" s="104"/>
+      <c r="T61" s="105"/>
+      <c r="U61" s="105"/>
+      <c r="V61" s="106"/>
+      <c r="W61" s="104"/>
+      <c r="X61" s="105"/>
+      <c r="Y61" s="42"/>
+      <c r="Z61" s="43"/>
+      <c r="AA61" s="41"/>
+      <c r="AB61" s="42"/>
+      <c r="AC61" s="42"/>
+      <c r="AD61" s="43"/>
+      <c r="AE61" s="41"/>
+      <c r="AF61" s="42"/>
+      <c r="AG61" s="42"/>
+      <c r="AH61" s="43"/>
+      <c r="AI61" s="58"/>
+      <c r="AJ61" s="72"/>
+      <c r="AK61" s="43"/>
+      <c r="AL61" s="12"/>
+    </row>
+    <row r="62" spans="1:38">
+      <c r="A62" s="107"/>
+      <c r="B62" s="103" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="57" spans="1:1">
-      <c r="A57" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1">
-      <c r="A58" s="5"/>
-    </row>
-    <row r="59" spans="1:1">
-      <c r="A59" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="C62" s="41"/>
+      <c r="D62" s="42"/>
+      <c r="E62" s="42"/>
+      <c r="F62" s="43"/>
+      <c r="G62" s="41"/>
+      <c r="H62" s="42"/>
+      <c r="I62" s="42"/>
+      <c r="J62" s="43"/>
+      <c r="K62" s="41"/>
+      <c r="L62" s="42"/>
+      <c r="M62" s="42"/>
+      <c r="N62" s="43"/>
+      <c r="O62" s="41"/>
+      <c r="P62" s="42"/>
+      <c r="Q62" s="42"/>
+      <c r="R62" s="43"/>
+      <c r="S62" s="41"/>
+      <c r="T62" s="42"/>
+      <c r="U62" s="54"/>
+      <c r="V62" s="63"/>
+      <c r="W62" s="41"/>
+      <c r="X62" s="42"/>
+      <c r="Y62" s="105"/>
+      <c r="Z62" s="106"/>
+      <c r="AA62" s="104"/>
+      <c r="AB62" s="42"/>
+      <c r="AC62" s="42"/>
+      <c r="AD62" s="43"/>
+      <c r="AE62" s="41"/>
+      <c r="AF62" s="42"/>
+      <c r="AG62" s="42"/>
+      <c r="AH62" s="43"/>
+      <c r="AI62" s="58"/>
+      <c r="AJ62" s="72"/>
+      <c r="AK62" s="43"/>
+      <c r="AL62" s="12"/>
+    </row>
+    <row r="63" spans="1:38">
+      <c r="A63" s="95"/>
+      <c r="B63" s="86" t="s">
+        <v>48</v>
+      </c>
+      <c r="C63" s="41"/>
+      <c r="D63" s="42"/>
+      <c r="E63" s="42"/>
+      <c r="F63" s="43"/>
+      <c r="G63" s="41"/>
+      <c r="H63" s="42"/>
+      <c r="I63" s="42"/>
+      <c r="J63" s="43"/>
+      <c r="K63" s="41"/>
+      <c r="L63" s="42"/>
+      <c r="M63" s="42"/>
+      <c r="N63" s="43"/>
+      <c r="O63" s="41"/>
+      <c r="P63" s="42"/>
+      <c r="Q63" s="42"/>
+      <c r="R63" s="43"/>
+      <c r="S63" s="41"/>
+      <c r="T63" s="42"/>
+      <c r="U63" s="54"/>
+      <c r="V63" s="63"/>
+      <c r="W63" s="41"/>
+      <c r="X63" s="42"/>
+      <c r="Y63" s="42"/>
+      <c r="Z63" s="43"/>
+      <c r="AA63" s="41"/>
+      <c r="AB63" s="42"/>
+      <c r="AC63" s="42"/>
+      <c r="AD63" s="57"/>
+      <c r="AE63" s="59"/>
+      <c r="AF63" s="64"/>
+      <c r="AG63" s="42"/>
+      <c r="AH63" s="43"/>
+      <c r="AI63" s="58"/>
+      <c r="AJ63" s="72"/>
+      <c r="AK63" s="43"/>
+      <c r="AL63" s="12"/>
+    </row>
+    <row r="64" spans="1:38">
+      <c r="A64" s="97"/>
+      <c r="B64" s="87" t="s">
+        <v>49</v>
+      </c>
+      <c r="C64" s="47"/>
+      <c r="D64" s="48"/>
+      <c r="E64" s="48"/>
+      <c r="F64" s="49"/>
+      <c r="G64" s="47"/>
+      <c r="H64" s="48"/>
+      <c r="I64" s="48"/>
+      <c r="J64" s="49"/>
+      <c r="K64" s="47"/>
+      <c r="L64" s="48"/>
+      <c r="M64" s="48"/>
+      <c r="N64" s="49"/>
+      <c r="O64" s="47"/>
+      <c r="P64" s="48"/>
+      <c r="Q64" s="48"/>
+      <c r="R64" s="49"/>
+      <c r="S64" s="47"/>
+      <c r="T64" s="48"/>
+      <c r="U64" s="65"/>
+      <c r="V64" s="66"/>
+      <c r="W64" s="47"/>
+      <c r="X64" s="48"/>
+      <c r="Y64" s="48"/>
+      <c r="Z64" s="49"/>
+      <c r="AA64" s="47"/>
+      <c r="AB64" s="48"/>
+      <c r="AC64" s="48"/>
+      <c r="AD64" s="67"/>
+      <c r="AE64" s="68"/>
+      <c r="AF64" s="69"/>
+      <c r="AG64" s="69"/>
+      <c r="AH64" s="67"/>
+      <c r="AI64" s="73"/>
+      <c r="AJ64" s="74"/>
+      <c r="AK64" s="49"/>
+      <c r="AL64" s="12"/>
+    </row>
+    <row r="65" spans="22:38">
+      <c r="AK65" s="29"/>
+      <c r="AL65" s="29"/>
+    </row>
+    <row r="66" spans="22:38">
+      <c r="AK66" s="29"/>
+      <c r="AL66" s="29"/>
+    </row>
+    <row r="67" spans="22:38">
+      <c r="V67" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="H2:Y2"/>
-    <mergeCell ref="Z2:AJ2"/>
+  <mergeCells count="9">
+    <mergeCell ref="C48:H48"/>
+    <mergeCell ref="I48:Z48"/>
+    <mergeCell ref="AA48:AK48"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="I2:Z2"/>
+    <mergeCell ref="AA2:AK2"/>
+    <mergeCell ref="C27:H27"/>
+    <mergeCell ref="I27:Z27"/>
+    <mergeCell ref="AA27:AK27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1352,7 +3810,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1364,7 +3822,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/Seguiment.xlsx
+++ b/docs/Seguiment.xlsx
@@ -568,7 +568,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -731,6 +731,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1408,8 +1414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:AN67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AN6" sqref="AN6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -1849,7 +1855,7 @@
     </row>
     <row r="14" spans="1:40">
       <c r="A14" s="98"/>
-      <c r="B14" s="89" t="s">
+      <c r="B14" s="108" t="s">
         <v>34</v>
       </c>
       <c r="C14" s="12"/>
@@ -1874,7 +1880,7 @@
     </row>
     <row r="15" spans="1:40">
       <c r="A15" s="98"/>
-      <c r="B15" s="91" t="s">
+      <c r="B15" s="109" t="s">
         <v>2</v>
       </c>
       <c r="C15" s="12"/>
@@ -1974,7 +1980,7 @@
     </row>
     <row r="19" spans="1:38">
       <c r="A19" s="98"/>
-      <c r="B19" s="91" t="s">
+      <c r="B19" s="109" t="s">
         <v>3</v>
       </c>
       <c r="C19" s="12"/>
@@ -2457,7 +2463,7 @@
     </row>
     <row r="33" spans="1:37">
       <c r="A33" s="98"/>
-      <c r="B33" s="85" t="s">
+      <c r="B33" s="96" t="s">
         <v>8</v>
       </c>
       <c r="C33" s="41"/>
